--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.27702985468457</v>
+        <v>6.423576</v>
       </c>
       <c r="H2">
-        <v>1.27702985468457</v>
+        <v>19.270728</v>
       </c>
       <c r="I2">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="J2">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N2">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q2">
-        <v>65.42395160100148</v>
+        <v>1535.773809722024</v>
       </c>
       <c r="R2">
-        <v>65.42395160100148</v>
+        <v>13821.96428749821</v>
       </c>
       <c r="S2">
-        <v>4.727812911667683E-05</v>
+        <v>0.0006870304608968913</v>
       </c>
       <c r="T2">
-        <v>4.727812911667683E-05</v>
+        <v>0.0006870304608968913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.27702985468457</v>
+        <v>6.423576</v>
       </c>
       <c r="H3">
-        <v>1.27702985468457</v>
+        <v>19.270728</v>
       </c>
       <c r="I3">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="J3">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N3">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q3">
-        <v>149.4478008397675</v>
+        <v>751.8877266003279</v>
       </c>
       <c r="R3">
-        <v>149.4478008397675</v>
+        <v>6766.989539402952</v>
       </c>
       <c r="S3">
-        <v>0.0001079973350952065</v>
+        <v>0.0003363579767273402</v>
       </c>
       <c r="T3">
-        <v>0.0001079973350952065</v>
+        <v>0.0003363579767273402</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.27702985468457</v>
+        <v>6.423576</v>
       </c>
       <c r="H4">
-        <v>1.27702985468457</v>
+        <v>19.270728</v>
       </c>
       <c r="I4">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="J4">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N4">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q4">
-        <v>176.6572996929009</v>
+        <v>1099.45175257608</v>
       </c>
       <c r="R4">
-        <v>176.6572996929009</v>
+        <v>9895.065773184719</v>
       </c>
       <c r="S4">
-        <v>0.0001276600758575487</v>
+        <v>0.0004918412070348818</v>
       </c>
       <c r="T4">
-        <v>0.0001276600758575487</v>
+        <v>0.0004918412070348818</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.27702985468457</v>
+        <v>6.423576</v>
       </c>
       <c r="H5">
-        <v>1.27702985468457</v>
+        <v>19.270728</v>
       </c>
       <c r="I5">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="J5">
-        <v>0.0003349590105236335</v>
+        <v>0.001681024218962088</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N5">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q5">
-        <v>71.99060277347645</v>
+        <v>370.613792983968</v>
       </c>
       <c r="R5">
-        <v>71.99060277347645</v>
+        <v>3335.524136855712</v>
       </c>
       <c r="S5">
-        <v>5.202347045420155E-05</v>
+        <v>0.0001657945743029747</v>
       </c>
       <c r="T5">
-        <v>5.202347045420155E-05</v>
+        <v>0.0001657945743029747</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3580.33884961302</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H6">
-        <v>3580.33884961302</v>
+        <v>10741.933594</v>
       </c>
       <c r="I6">
-        <v>0.939106281663183</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="J6">
-        <v>0.939106281663183</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N6">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q6">
-        <v>183425.5595145232</v>
+        <v>856074.5748390188</v>
       </c>
       <c r="R6">
-        <v>183425.5595145232</v>
+        <v>7704671.173551168</v>
       </c>
       <c r="S6">
-        <v>0.132551108176926</v>
+        <v>0.3829661021633236</v>
       </c>
       <c r="T6">
-        <v>0.132551108176926</v>
+        <v>0.3829661021633236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3580.33884961302</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H7">
-        <v>3580.33884961302</v>
+        <v>10741.933594</v>
       </c>
       <c r="I7">
-        <v>0.939106281663183</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="J7">
-        <v>0.939106281663183</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N7">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q7">
-        <v>418998.6360718353</v>
+        <v>419118.9886175733</v>
       </c>
       <c r="R7">
-        <v>418998.6360718353</v>
+        <v>3772070.89755816</v>
       </c>
       <c r="S7">
-        <v>0.3027862293724929</v>
+        <v>0.1874934382249226</v>
       </c>
       <c r="T7">
-        <v>0.3027862293724929</v>
+        <v>0.1874934382249226</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3580.33884961302</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H8">
-        <v>3580.33884961302</v>
+        <v>10741.933594</v>
       </c>
       <c r="I8">
-        <v>0.939106281663183</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="J8">
-        <v>0.939106281663183</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N8">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q8">
-        <v>495284.4217682372</v>
+        <v>612858.9286289116</v>
       </c>
       <c r="R8">
-        <v>495284.4217682372</v>
+        <v>5515730.357660205</v>
       </c>
       <c r="S8">
-        <v>0.3579135816290084</v>
+        <v>0.2741632586356627</v>
       </c>
       <c r="T8">
-        <v>0.3579135816290084</v>
+        <v>0.2741632586356627</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3580.33884961302</v>
+        <v>3580.644531333333</v>
       </c>
       <c r="H9">
-        <v>3580.33884961302</v>
+        <v>10741.933594</v>
       </c>
       <c r="I9">
-        <v>0.939106281663183</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="J9">
-        <v>0.939106281663183</v>
+        <v>0.9370403925578976</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N9">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q9">
-        <v>201836.1207229581</v>
+        <v>206588.3942347298</v>
       </c>
       <c r="R9">
-        <v>201836.1207229581</v>
+        <v>1859295.548112569</v>
       </c>
       <c r="S9">
-        <v>0.1458553624847558</v>
+        <v>0.09241759353398861</v>
       </c>
       <c r="T9">
-        <v>0.1458553624847558</v>
+        <v>0.09241759353398861</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.495626361418856</v>
+        <v>0.9157713333333334</v>
       </c>
       <c r="H10">
-        <v>0.495626361418856</v>
+        <v>2.747314</v>
       </c>
       <c r="I10">
-        <v>0.0001300004968570565</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="J10">
-        <v>0.0001300004968570565</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N10">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O10">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P10">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q10">
-        <v>25.39160299400908</v>
+        <v>218.9462114914731</v>
       </c>
       <c r="R10">
-        <v>25.39160299400908</v>
+        <v>1970.515903423258</v>
       </c>
       <c r="S10">
-        <v>1.83490519214034E-05</v>
+        <v>9.794587955620994E-05</v>
       </c>
       <c r="T10">
-        <v>1.83490519214034E-05</v>
+        <v>9.794587955620994E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.495626361418856</v>
+        <v>0.9157713333333334</v>
       </c>
       <c r="H11">
-        <v>0.495626361418856</v>
+        <v>2.747314</v>
       </c>
       <c r="I11">
-        <v>0.0001300004968570565</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="J11">
-        <v>0.0001300004968570565</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N11">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P11">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q11">
-        <v>58.00198756556038</v>
+        <v>107.1921972910029</v>
       </c>
       <c r="R11">
-        <v>58.00198756556038</v>
+        <v>964.7297756190261</v>
       </c>
       <c r="S11">
-        <v>4.191470233825605E-05</v>
+        <v>4.795257234053099E-05</v>
       </c>
       <c r="T11">
-        <v>4.191470233825605E-05</v>
+        <v>4.7952572340531E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.495626361418856</v>
+        <v>0.9157713333333334</v>
       </c>
       <c r="H12">
-        <v>0.495626361418856</v>
+        <v>2.747314</v>
       </c>
       <c r="I12">
-        <v>0.0001300004968570565</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="J12">
-        <v>0.0001300004968570565</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N12">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O12">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P12">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q12">
-        <v>68.56223004003257</v>
+        <v>156.7423499608733</v>
       </c>
       <c r="R12">
-        <v>68.56223004003257</v>
+        <v>1410.68114964786</v>
       </c>
       <c r="S12">
-        <v>4.954598254976606E-05</v>
+        <v>7.011889918553307E-05</v>
       </c>
       <c r="T12">
-        <v>4.954598254976606E-05</v>
+        <v>7.011889918553309E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.495626361418856</v>
+        <v>0.9157713333333334</v>
       </c>
       <c r="H13">
-        <v>0.495626361418856</v>
+        <v>2.747314</v>
       </c>
       <c r="I13">
-        <v>0.0001300004968570565</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="J13">
-        <v>0.0001300004968570565</v>
+        <v>0.0002396537054071653</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N13">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O13">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P13">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q13">
-        <v>27.94017726216864</v>
+        <v>52.836221966184</v>
       </c>
       <c r="R13">
-        <v>27.94017726216864</v>
+        <v>475.525997695656</v>
       </c>
       <c r="S13">
-        <v>2.019076004763103E-05</v>
+        <v>2.363635432489124E-05</v>
       </c>
       <c r="T13">
-        <v>2.019076004763103E-05</v>
+        <v>2.363635432489124E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>230.384395350604</v>
+        <v>233.243637</v>
       </c>
       <c r="H14">
-        <v>230.384395350604</v>
+        <v>699.7309110000001</v>
       </c>
       <c r="I14">
-        <v>0.06042875882943625</v>
+        <v>0.0610389295177331</v>
       </c>
       <c r="J14">
-        <v>0.06042875882943625</v>
+        <v>0.06103892951773311</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N14">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O14">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P14">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q14">
-        <v>11802.90145586839</v>
+        <v>55764.80592568858</v>
       </c>
       <c r="R14">
-        <v>11802.90145586839</v>
+        <v>501883.2533311971</v>
       </c>
       <c r="S14">
-        <v>0.008529278426731665</v>
+        <v>0.02494646026284693</v>
       </c>
       <c r="T14">
-        <v>0.008529278426731665</v>
+        <v>0.02494646026284694</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>230.384395350604</v>
+        <v>233.243637</v>
       </c>
       <c r="H15">
-        <v>230.384395350604</v>
+        <v>699.7309110000001</v>
       </c>
       <c r="I15">
-        <v>0.06042875882943625</v>
+        <v>0.0610389295177331</v>
       </c>
       <c r="J15">
-        <v>0.06042875882943625</v>
+        <v>0.06103892951773311</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N15">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O15">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P15">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q15">
-        <v>26961.34401763985</v>
+        <v>27301.46385252112</v>
       </c>
       <c r="R15">
-        <v>26961.34401763985</v>
+        <v>245713.17467269</v>
       </c>
       <c r="S15">
-        <v>0.01948341352718913</v>
+        <v>0.01221334624605457</v>
       </c>
       <c r="T15">
-        <v>0.01948341352718913</v>
+        <v>0.01221334624605457</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>230.384395350604</v>
+        <v>233.243637</v>
       </c>
       <c r="H16">
-        <v>230.384395350604</v>
+        <v>699.7309110000001</v>
       </c>
       <c r="I16">
-        <v>0.06042875882943625</v>
+        <v>0.0610389295177331</v>
       </c>
       <c r="J16">
-        <v>0.06042875882943625</v>
+        <v>0.06103892951773311</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N16">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O16">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P16">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q16">
-        <v>31870.11253082427</v>
+        <v>39921.70801386471</v>
       </c>
       <c r="R16">
-        <v>31870.11253082427</v>
+        <v>359295.3721247825</v>
       </c>
       <c r="S16">
-        <v>0.02303069836540209</v>
+        <v>0.01785902929385218</v>
       </c>
       <c r="T16">
-        <v>0.02303069836540209</v>
+        <v>0.01785902929385219</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>230.384395350604</v>
+        <v>233.243637</v>
       </c>
       <c r="H17">
-        <v>230.384395350604</v>
+        <v>699.7309110000001</v>
       </c>
       <c r="I17">
-        <v>0.06042875882943625</v>
+        <v>0.0610389295177331</v>
       </c>
       <c r="J17">
-        <v>0.06042875882943625</v>
+        <v>0.06103892951773311</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N17">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O17">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P17">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q17">
-        <v>12987.56754202082</v>
+        <v>13457.19409219192</v>
       </c>
       <c r="R17">
-        <v>12987.56754202082</v>
+        <v>121114.7468297273</v>
       </c>
       <c r="S17">
-        <v>0.009385368510113385</v>
+        <v>0.006020093714979408</v>
       </c>
       <c r="T17">
-        <v>0.009385368510113385</v>
+        <v>0.006020093714979409</v>
       </c>
     </row>
   </sheetData>
